--- a/my1stProject/timers/timers.xlsx
+++ b/my1stProject/timers/timers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -2961,10 +2961,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6312,9 +6312,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6385,6 +6385,12 @@
       <c r="B3" s="13" t="s">
         <v>450</v>
       </c>
+      <c r="C3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" t="s">
+        <v>428</v>
+      </c>
       <c r="E3" s="146" t="s">
         <v>460</v>
       </c>
@@ -6399,10 +6405,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6414,10 +6420,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -6428,11 +6434,11 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D6" t="s">
-        <v>454</v>
+      <c r="C6" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6446,10 +6452,10 @@
       <c r="A7" s="16"/>
       <c r="B7" s="14"/>
       <c r="C7" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -6463,10 +6469,10 @@
       <c r="A8" s="16"/>
       <c r="B8" s="14"/>
       <c r="C8" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -6479,12 +6485,6 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>459</v>
-      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6500,7 +6500,12 @@
       <c r="B10" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
         <v>462</v>
@@ -6513,12 +6518,6 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
-      <c r="C11" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -6534,8 +6533,12 @@
       <c r="B12" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>436</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
         <v>462</v>
@@ -6548,12 +6551,6 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
-      <c r="C13" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7445,9 +7442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8082,7 +8079,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="166"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="112"/>
       <c r="D3" s="113"/>
       <c r="E3" s="114"/>
@@ -8096,8 +8093,8 @@
       <c r="M3" s="118"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
       <c r="D4" s="168"/>
       <c r="E4" s="169"/>
       <c r="F4" s="115"/>
@@ -8110,8 +8107,8 @@
       <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
       <c r="D5" s="168"/>
       <c r="E5" s="169"/>
       <c r="F5" s="115"/>
@@ -8124,8 +8121,8 @@
       <c r="M5" s="118"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="168"/>
       <c r="E6" s="169"/>
       <c r="F6" s="115"/>
@@ -8138,8 +8135,8 @@
       <c r="M6" s="118"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
       <c r="D7" s="168"/>
       <c r="E7" s="169"/>
       <c r="F7" s="115"/>
@@ -8152,8 +8149,8 @@
       <c r="M7" s="118"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
       <c r="D8" s="168"/>
       <c r="E8" s="169"/>
       <c r="F8" s="115"/>
@@ -8166,7 +8163,7 @@
       <c r="M8" s="124"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="166"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="92"/>
       <c r="D9" s="113"/>
       <c r="E9" s="114"/>
@@ -8180,7 +8177,7 @@
       <c r="M9" s="124"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="166"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="112"/>
       <c r="D10" s="113"/>
       <c r="E10" s="114"/>
@@ -8194,7 +8191,7 @@
       <c r="M10" s="113"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="166"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="126"/>
       <c r="D11" s="118"/>
       <c r="E11" s="127"/>
@@ -8208,8 +8205,8 @@
       <c r="M11" s="118"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="167"/>
-      <c r="C12" s="166"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="168"/>
       <c r="E12" s="114"/>
       <c r="F12" s="115"/>
@@ -8222,8 +8219,8 @@
       <c r="M12" s="124"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="167"/>
-      <c r="C13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
       <c r="D13" s="168"/>
       <c r="E13" s="114"/>
       <c r="F13" s="115"/>
@@ -8236,8 +8233,8 @@
       <c r="M13" s="124"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="167"/>
-      <c r="C14" s="166"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167"/>
       <c r="D14" s="168"/>
       <c r="E14" s="114"/>
       <c r="F14" s="115"/>
@@ -8250,8 +8247,8 @@
       <c r="M14" s="124"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="167"/>
-      <c r="C15" s="166"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
       <c r="D15" s="168"/>
       <c r="E15" s="114"/>
       <c r="F15" s="115"/>
@@ -8264,8 +8261,8 @@
       <c r="M15" s="124"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="167"/>
-      <c r="C16" s="166"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
       <c r="D16" s="168"/>
       <c r="E16" s="114"/>
       <c r="F16" s="115"/>
@@ -8278,8 +8275,8 @@
       <c r="M16" s="124"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="167"/>
-      <c r="C17" s="166"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
       <c r="D17" s="168"/>
       <c r="E17" s="114"/>
       <c r="F17" s="115"/>
@@ -8292,8 +8289,8 @@
       <c r="M17" s="124"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="167"/>
-      <c r="C18" s="166"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
       <c r="D18" s="168"/>
       <c r="E18" s="114"/>
       <c r="F18" s="115"/>
@@ -8306,8 +8303,8 @@
       <c r="M18" s="124"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="167"/>
-      <c r="C19" s="166"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="168"/>
       <c r="E19" s="114"/>
       <c r="F19" s="115"/>
@@ -8363,12 +8360,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -8379,6 +8370,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
